--- a/survey_responses.xlsx
+++ b/survey_responses.xlsx
@@ -12,29 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>你是人吗</t>
-  </si>
-  <si>
-    <t>诗人我吃</t>
-  </si>
-  <si>
-    <t>天才</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>不是哥们</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,44 +55,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
